--- a/Test_Cases.xlsx
+++ b/Test_Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amz/Documents/Independent Study/Software verification and validation/Test Techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70957D13-37BF-4847-AF46-06293869CBC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F2C87A-DF5E-FA40-BB68-08790CDB5FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="0" windowWidth="13180" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12420" yWindow="460" windowWidth="13180" windowHeight="14960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Test Case" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="86">
   <si>
     <t xml:space="preserve">Project Name: </t>
   </si>
@@ -297,13 +297,6 @@
   </si>
   <si>
     <t>verifyPIDOpt = pidtuneOptions('DesignFocus','disturbance-rejection')</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fail
-</t>
   </si>
 </sst>
 </file>
@@ -716,7 +709,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -938,6 +931,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -984,7 +990,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1057,6 +1063,150 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="24" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="24" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="24" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1067,18 +1217,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1105,137 +1243,8 @@
     <xf numFmtId="0" fontId="27" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="24" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="24" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="24" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1619,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="68" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76:I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1641,90 +1650,90 @@
   <sheetData>
     <row r="1" spans="2:11" ht="5.25" customHeight="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="71" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="71" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="88">
+      <c r="C5" s="64"/>
+      <c r="D5" s="59">
         <v>43947</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="89">
+      <c r="C6" s="54"/>
+      <c r="D6" s="60">
         <v>43961</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
     </row>
     <row r="9" spans="2:11" ht="31">
       <c r="B9" s="6" t="s">
@@ -1754,7 +1763,7 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11" ht="17" customHeight="1">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="48" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -1773,39 +1782,39 @@
       <c r="H10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="30" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" ht="40" customHeight="1">
-      <c r="B11" s="77"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="67" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="46"/>
+      <c r="I11" s="30"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="78"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="64"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="46"/>
+      <c r="I12" s="30"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="27" t="s">
@@ -1817,7 +1826,7 @@
       <c r="E13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="69" t="s">
         <v>53</v>
       </c>
       <c r="G13" s="27" t="s">
@@ -1826,37 +1835,37 @@
       <c r="H13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="36" t="s">
         <v>19</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="2:11" ht="40" customHeight="1">
-      <c r="B14" s="52"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="66"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="49"/>
+      <c r="I14" s="37"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="2:11" ht="27" customHeight="1">
-      <c r="B15" s="53"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="67"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="38"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -1868,46 +1877,46 @@
       <c r="E16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="68"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="27" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="48" t="s">
-        <v>86</v>
+      <c r="I16" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="40" customHeight="1">
-      <c r="B17" s="52"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="63"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="49"/>
+      <c r="I17" s="37"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="B18" s="53"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="55"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="50"/>
+      <c r="I18" s="38"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -1919,7 +1928,7 @@
       <c r="E19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="51" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="27" t="s">
@@ -1928,37 +1937,37 @@
       <c r="H19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="48" t="s">
-        <v>86</v>
+      <c r="I19" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="40" customHeight="1">
-      <c r="B20" s="52"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="57"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="49"/>
+      <c r="I20" s="37"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="B21" s="53"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="58"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="53"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
-      <c r="I21" s="50"/>
+      <c r="I21" s="38"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -1970,7 +1979,7 @@
       <c r="E22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="51" t="s">
         <v>56</v>
       </c>
       <c r="G22" s="27" t="s">
@@ -1979,40 +1988,40 @@
       <c r="H22" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="48" t="s">
-        <v>86</v>
+      <c r="I22" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="52"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="57"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="49"/>
+      <c r="I23" s="37"/>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" ht="37" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="53"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="58"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
-      <c r="I24" s="50"/>
+      <c r="I24" s="38"/>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -2024,7 +2033,7 @@
       <c r="E25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="51" t="s">
         <v>57</v>
       </c>
       <c r="G25" s="27" t="s">
@@ -2033,41 +2042,41 @@
       <c r="H25" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="48" t="s">
-        <v>86</v>
+      <c r="I25" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="52"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="57"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="49"/>
+      <c r="I26" s="37"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="53"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="58"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
-      <c r="I27" s="50"/>
+      <c r="I27" s="38"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="39">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -2083,42 +2092,42 @@
       <c r="H28" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="48" t="s">
-        <v>86</v>
+      <c r="I28" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="B29" s="52"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="42" t="s">
         <v>23</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="49"/>
+      <c r="I29" s="37"/>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="B30" s="53"/>
-      <c r="C30" s="50"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="60"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
-      <c r="I30" s="50"/>
+      <c r="I30" s="38"/>
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="27" t="s">
@@ -2136,40 +2145,40 @@
       <c r="H31" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="46" t="s">
+      <c r="I31" s="30" t="s">
         <v>19</v>
       </c>
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="B32" s="77"/>
-      <c r="C32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="28"/>
-      <c r="E32" s="81" t="s">
+      <c r="E32" s="46" t="s">
         <v>47</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="46"/>
+      <c r="I32" s="30"/>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="2:11" ht="31" customHeight="1">
-      <c r="B33" s="78"/>
-      <c r="C33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="29"/>
-      <c r="E33" s="82"/>
+      <c r="E33" s="47"/>
       <c r="F33" s="19"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
-      <c r="I33" s="46"/>
+      <c r="I33" s="30"/>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1">
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="36" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="27" t="s">
@@ -2187,40 +2196,40 @@
       <c r="H34" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="46" t="s">
+      <c r="I34" s="30" t="s">
         <v>19</v>
       </c>
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1">
-      <c r="B35" s="77"/>
-      <c r="C35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="81" t="s">
+      <c r="E35" s="46" t="s">
         <v>47</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="46"/>
+      <c r="I35" s="30"/>
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="2:11" ht="49" customHeight="1">
-      <c r="B36" s="78"/>
-      <c r="C36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="29"/>
-      <c r="E36" s="82"/>
+      <c r="E36" s="47"/>
       <c r="F36" s="12"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
-      <c r="I36" s="46"/>
+      <c r="I36" s="30"/>
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="2:11" ht="44" customHeight="1">
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="27" t="s">
@@ -2238,40 +2247,40 @@
       <c r="H37" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="46" t="s">
+      <c r="I37" s="30" t="s">
         <v>19</v>
       </c>
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="2:11" ht="15" customHeight="1">
-      <c r="B38" s="77"/>
-      <c r="C38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="81" t="s">
+      <c r="E38" s="46" t="s">
         <v>47</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="46"/>
+      <c r="I38" s="30"/>
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="78"/>
-      <c r="C39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="29"/>
-      <c r="E39" s="82"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="23"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
-      <c r="I39" s="46"/>
+      <c r="I39" s="30"/>
       <c r="K39" s="4"/>
     </row>
     <row r="40" spans="2:11" ht="38" customHeight="1">
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D40" s="27" t="s">
@@ -2280,7 +2289,7 @@
       <c r="E40" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="83" t="s">
+      <c r="F40" s="44" t="s">
         <v>63</v>
       </c>
       <c r="G40" s="27" t="s">
@@ -2289,40 +2298,40 @@
       <c r="H40" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="46" t="s">
+      <c r="I40" s="30" t="s">
         <v>19</v>
       </c>
       <c r="K40" s="4"/>
     </row>
     <row r="41" spans="2:11" ht="15" customHeight="1">
-      <c r="B41" s="52"/>
-      <c r="C41" s="49"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="84"/>
+      <c r="F41" s="45"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
-      <c r="I41" s="46"/>
+      <c r="I41" s="30"/>
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="53"/>
-      <c r="C42" s="50"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="29"/>
-      <c r="E42" s="60"/>
+      <c r="E42" s="43"/>
       <c r="F42" s="13"/>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
-      <c r="I42" s="46"/>
+      <c r="I42" s="30"/>
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="2:11" ht="30" customHeight="1">
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D43" s="27" t="s">
@@ -2340,38 +2349,38 @@
       <c r="H43" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="48" t="s">
-        <v>86</v>
+      <c r="I43" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" ht="15" customHeight="1">
-      <c r="B44" s="52"/>
-      <c r="C44" s="49"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="28"/>
-      <c r="E44" s="54" t="s">
+      <c r="E44" s="31" t="s">
         <v>47</v>
       </c>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
-      <c r="I44" s="49"/>
+      <c r="I44" s="37"/>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="2:11" ht="19" customHeight="1">
-      <c r="B45" s="53"/>
-      <c r="C45" s="50"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="29"/>
-      <c r="E45" s="55"/>
+      <c r="E45" s="32"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
-      <c r="I45" s="50"/>
+      <c r="I45" s="38"/>
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" ht="34" customHeight="1">
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D46" s="27" t="s">
@@ -2380,7 +2389,7 @@
       <c r="E46" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="85" t="s">
+      <c r="F46" s="39" t="s">
         <v>65</v>
       </c>
       <c r="G46" s="27" t="s">
@@ -2389,40 +2398,40 @@
       <c r="H46" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="48" t="s">
-        <v>86</v>
+      <c r="I46" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="2:11" ht="15" customHeight="1">
-      <c r="B47" s="52"/>
-      <c r="C47" s="49"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="28"/>
-      <c r="E47" s="54" t="s">
+      <c r="E47" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="86"/>
+      <c r="F47" s="40"/>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
-      <c r="I47" s="49"/>
+      <c r="I47" s="37"/>
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="53"/>
-      <c r="C48" s="50"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="29"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="87"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="41"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
-      <c r="I48" s="50"/>
+      <c r="I48" s="38"/>
       <c r="K48" s="4"/>
     </row>
     <row r="49" spans="2:11" ht="36" customHeight="1">
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D49" s="27" t="s">
@@ -2431,7 +2440,7 @@
       <c r="E49" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="85" t="s">
+      <c r="F49" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G49" s="27" t="s">
@@ -2440,40 +2449,40 @@
       <c r="H49" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="48" t="s">
-        <v>86</v>
+      <c r="I49" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="K49" s="4"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1">
-      <c r="B50" s="52"/>
-      <c r="C50" s="49"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="54" t="s">
+      <c r="E50" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F50" s="86"/>
+      <c r="F50" s="40"/>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
-      <c r="I50" s="49"/>
+      <c r="I50" s="37"/>
       <c r="K50" s="4"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="53"/>
-      <c r="C51" s="50"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="38"/>
       <c r="D51" s="29"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="87"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="41"/>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
-      <c r="I51" s="50"/>
+      <c r="I51" s="38"/>
       <c r="K51" s="4"/>
     </row>
     <row r="52" spans="2:11" ht="15" customHeight="1">
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D52" s="27" t="s">
@@ -2482,7 +2491,7 @@
       <c r="E52" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F52" s="85" t="s">
+      <c r="F52" s="39" t="s">
         <v>67</v>
       </c>
       <c r="G52" s="27" t="s">
@@ -2491,40 +2500,40 @@
       <c r="H52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I52" s="48" t="s">
-        <v>86</v>
+      <c r="I52" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="K52" s="4"/>
     </row>
     <row r="53" spans="2:11" ht="15" customHeight="1">
-      <c r="B53" s="52"/>
-      <c r="C53" s="49"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="28"/>
-      <c r="E53" s="54" t="s">
+      <c r="E53" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F53" s="86"/>
+      <c r="F53" s="40"/>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
-      <c r="I53" s="49"/>
+      <c r="I53" s="37"/>
       <c r="K53" s="4"/>
     </row>
     <row r="54" spans="2:11" ht="39" customHeight="1">
-      <c r="B54" s="53"/>
-      <c r="C54" s="50"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="38"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="87"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="41"/>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
-      <c r="I54" s="50"/>
+      <c r="I54" s="38"/>
       <c r="K54" s="4"/>
     </row>
     <row r="55" spans="2:11" ht="15" customHeight="1">
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D55" s="27" t="s">
@@ -2533,7 +2542,7 @@
       <c r="E55" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F55" s="85" t="s">
+      <c r="F55" s="39" t="s">
         <v>68</v>
       </c>
       <c r="G55" s="27" t="s">
@@ -2542,40 +2551,40 @@
       <c r="H55" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I55" s="48" t="s">
-        <v>86</v>
+      <c r="I55" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="2:11" ht="31" customHeight="1">
-      <c r="B56" s="52"/>
-      <c r="C56" s="49"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="28"/>
-      <c r="E56" s="54" t="s">
+      <c r="E56" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F56" s="86"/>
+      <c r="F56" s="40"/>
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
-      <c r="I56" s="49"/>
+      <c r="I56" s="37"/>
       <c r="K56" s="4"/>
     </row>
     <row r="57" spans="2:11" ht="18" customHeight="1">
-      <c r="B57" s="53"/>
-      <c r="C57" s="50"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="38"/>
       <c r="D57" s="29"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="87"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="41"/>
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
-      <c r="I57" s="50"/>
+      <c r="I57" s="38"/>
       <c r="K57" s="4"/>
     </row>
     <row r="58" spans="2:11" ht="34" customHeight="1">
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="27" t="s">
@@ -2584,7 +2593,7 @@
       <c r="E58" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="85" t="s">
+      <c r="F58" s="39" t="s">
         <v>69</v>
       </c>
       <c r="G58" s="27" t="s">
@@ -2593,40 +2602,40 @@
       <c r="H58" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I58" s="48" t="s">
-        <v>86</v>
+      <c r="I58" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="K58" s="4"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1">
-      <c r="B59" s="52"/>
-      <c r="C59" s="49"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="28"/>
-      <c r="E59" s="54" t="s">
+      <c r="E59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F59" s="86"/>
+      <c r="F59" s="40"/>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
-      <c r="I59" s="49"/>
+      <c r="I59" s="37"/>
       <c r="K59" s="4"/>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="53"/>
-      <c r="C60" s="50"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="38"/>
       <c r="D60" s="29"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="87"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="41"/>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
-      <c r="I60" s="50"/>
+      <c r="I60" s="38"/>
       <c r="K60" s="4"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1">
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C61" s="48" t="s">
+      <c r="C61" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D61" s="27" t="s">
@@ -2635,7 +2644,7 @@
       <c r="E61" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F61" s="85" t="s">
+      <c r="F61" s="39" t="s">
         <v>70</v>
       </c>
       <c r="G61" s="27" t="s">
@@ -2644,40 +2653,40 @@
       <c r="H61" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I61" s="48" t="s">
-        <v>86</v>
+      <c r="I61" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="K61" s="4"/>
     </row>
     <row r="62" spans="2:11" ht="33" customHeight="1">
-      <c r="B62" s="52"/>
-      <c r="C62" s="49"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="28"/>
-      <c r="E62" s="54" t="s">
+      <c r="E62" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F62" s="86"/>
+      <c r="F62" s="40"/>
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
-      <c r="I62" s="49"/>
+      <c r="I62" s="37"/>
       <c r="K62" s="4"/>
     </row>
     <row r="63" spans="2:11" ht="13" customHeight="1">
-      <c r="B63" s="53"/>
-      <c r="C63" s="50"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="29"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="87"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="41"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
-      <c r="I63" s="50"/>
+      <c r="I63" s="38"/>
       <c r="K63" s="4"/>
     </row>
     <row r="64" spans="2:11" ht="42" customHeight="1">
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C64" s="48" t="s">
+      <c r="C64" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D64" s="27" t="s">
@@ -2686,7 +2695,7 @@
       <c r="E64" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F64" s="85" t="s">
+      <c r="F64" s="39" t="s">
         <v>71</v>
       </c>
       <c r="G64" s="27" t="s">
@@ -2695,40 +2704,40 @@
       <c r="H64" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I64" s="48" t="s">
-        <v>86</v>
+      <c r="I64" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="K64" s="4"/>
     </row>
     <row r="65" spans="2:11" ht="15" customHeight="1">
-      <c r="B65" s="52"/>
-      <c r="C65" s="49"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="28"/>
-      <c r="E65" s="54" t="s">
+      <c r="E65" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F65" s="86"/>
+      <c r="F65" s="40"/>
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
-      <c r="I65" s="49"/>
+      <c r="I65" s="37"/>
       <c r="K65" s="4"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="53"/>
-      <c r="C66" s="50"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="38"/>
       <c r="D66" s="29"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="87"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="41"/>
       <c r="G66" s="29"/>
       <c r="H66" s="29"/>
-      <c r="I66" s="50"/>
+      <c r="I66" s="38"/>
       <c r="K66" s="4"/>
     </row>
     <row r="67" spans="2:11" ht="15" customHeight="1">
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="48" t="s">
+      <c r="C67" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D67" s="27" t="s">
@@ -2737,7 +2746,7 @@
       <c r="E67" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F67" s="85" t="s">
+      <c r="F67" s="39" t="s">
         <v>72</v>
       </c>
       <c r="G67" s="27" t="s">
@@ -2746,40 +2755,40 @@
       <c r="H67" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I67" s="48" t="s">
-        <v>86</v>
+      <c r="I67" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="K67" s="4"/>
     </row>
     <row r="68" spans="2:11" ht="36" customHeight="1">
-      <c r="B68" s="52"/>
-      <c r="C68" s="49"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="28"/>
-      <c r="E68" s="54" t="s">
+      <c r="E68" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F68" s="86"/>
+      <c r="F68" s="40"/>
       <c r="G68" s="28"/>
       <c r="H68" s="28"/>
-      <c r="I68" s="49"/>
+      <c r="I68" s="37"/>
       <c r="K68" s="4"/>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="53"/>
-      <c r="C69" s="50"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="38"/>
       <c r="D69" s="29"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="87"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="41"/>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
-      <c r="I69" s="50"/>
+      <c r="I69" s="38"/>
       <c r="K69" s="4"/>
     </row>
     <row r="70" spans="2:11" ht="18" customHeight="1">
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="48" t="s">
+      <c r="C70" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="27" t="s">
@@ -2788,7 +2797,7 @@
       <c r="E70" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F70" s="85" t="s">
+      <c r="F70" s="39" t="s">
         <v>73</v>
       </c>
       <c r="G70" s="27" t="s">
@@ -2797,49 +2806,49 @@
       <c r="H70" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I70" s="46" t="s">
-        <v>87</v>
+      <c r="I70" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="K70" s="4"/>
     </row>
     <row r="71" spans="2:11" ht="15" customHeight="1">
-      <c r="B71" s="52"/>
-      <c r="C71" s="49"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="28"/>
-      <c r="E71" s="54" t="s">
+      <c r="E71" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F71" s="86"/>
+      <c r="F71" s="40"/>
       <c r="G71" s="28"/>
       <c r="H71" s="28"/>
-      <c r="I71" s="46"/>
+      <c r="I71" s="37"/>
       <c r="K71" s="4"/>
     </row>
     <row r="72" spans="2:11" ht="23" customHeight="1">
-      <c r="B72" s="53"/>
-      <c r="C72" s="50"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="38"/>
       <c r="D72" s="29"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="87"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="41"/>
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
-      <c r="I72" s="46"/>
+      <c r="I72" s="38"/>
       <c r="K72" s="4"/>
     </row>
     <row r="73" spans="2:11" ht="21" customHeight="1">
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="C73" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="78" t="s">
         <v>76</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F73" s="47" t="s">
+      <c r="F73" s="75" t="s">
         <v>83</v>
       </c>
       <c r="G73" s="27" t="s">
@@ -2848,49 +2857,49 @@
       <c r="H73" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I73" s="46" t="s">
+      <c r="I73" s="30" t="s">
         <v>19</v>
       </c>
       <c r="K73" s="4"/>
     </row>
     <row r="74" spans="2:11" ht="25" customHeight="1">
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="36" t="s">
+      <c r="B74" s="79"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="F74" s="34"/>
+      <c r="F74" s="76"/>
       <c r="G74" s="28"/>
       <c r="H74" s="28"/>
-      <c r="I74" s="46"/>
+      <c r="I74" s="30"/>
       <c r="K74" s="4"/>
     </row>
     <row r="75" spans="2:11">
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="35"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="77"/>
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
-      <c r="I75" s="46"/>
+      <c r="I75" s="30"/>
       <c r="K75" s="4"/>
     </row>
     <row r="76" spans="2:11">
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C76" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="78" t="s">
         <v>81</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F76" s="33" t="s">
+      <c r="F76" s="81" t="s">
         <v>84</v>
       </c>
       <c r="G76" s="27" t="s">
@@ -2899,49 +2908,49 @@
       <c r="H76" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I76" s="27" t="s">
-        <v>86</v>
+      <c r="I76" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="K76" s="4"/>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="36" t="s">
+      <c r="B77" s="79"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="F77" s="34"/>
+      <c r="F77" s="76"/>
       <c r="G77" s="28"/>
       <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
+      <c r="I77" s="37"/>
       <c r="K77" s="4"/>
     </row>
     <row r="78" spans="2:11" ht="30" customHeight="1">
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="35"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="77"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
+      <c r="I78" s="38"/>
       <c r="K78" s="4"/>
     </row>
     <row r="79" spans="2:11" ht="29" customHeight="1">
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="D79" s="38" t="s">
+      <c r="D79" s="82" t="s">
         <v>81</v>
       </c>
       <c r="E79" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F79" s="41" t="s">
+      <c r="F79" s="85" t="s">
         <v>85</v>
       </c>
       <c r="G79" s="27" t="s">
@@ -2950,33 +2959,33 @@
       <c r="H79" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I79" s="27" t="s">
-        <v>86</v>
+      <c r="I79" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="K79" s="4"/>
     </row>
     <row r="80" spans="2:11">
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="44" t="s">
+      <c r="B80" s="83"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="42"/>
+      <c r="F80" s="86"/>
       <c r="G80" s="28"/>
       <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
+      <c r="I80" s="37"/>
       <c r="K80" s="4"/>
     </row>
     <row r="81" spans="2:11">
-      <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="43"/>
+      <c r="B81" s="84"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="89"/>
+      <c r="F81" s="87"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
+      <c r="I81" s="90"/>
       <c r="K81" s="4"/>
     </row>
     <row r="82" spans="2:11">
@@ -14225,6 +14234,179 @@
     </row>
   </sheetData>
   <mergeCells count="197">
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="G79:G81"/>
+    <mergeCell ref="H79:H81"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="H2:K7"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="G58:G60"/>
     <mergeCell ref="H70:H72"/>
     <mergeCell ref="I70:I72"/>
     <mergeCell ref="E71:E72"/>
@@ -14249,179 +14431,6 @@
     <mergeCell ref="D64:D66"/>
     <mergeCell ref="F64:F66"/>
     <mergeCell ref="G64:G66"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="H49:H51"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="H2:K7"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="G79:G81"/>
-    <mergeCell ref="H79:H81"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="E80:E81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
